--- a/data/trans_dic/P25D_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.01094006547377827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02244872805061296</v>
+        <v>0.02244872805061295</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01147654230185567</v>
+        <v>0.01250747327041945</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009561924591385934</v>
+        <v>0.00850544379923973</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06884194114198665</v>
+        <v>0.0785387994259556</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04281353143789042</v>
+        <v>0.04195262661930972</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04372128995435045</v>
+        <v>0.04371246202628827</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003313559402278898</v>
+        <v>0.002682490113671818</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004364627573885544</v>
+        <v>0.004694023594300891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006315163892294047</v>
+        <v>0.006576057825089691</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03032404598758859</v>
+        <v>0.02935485237851277</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02817851710757633</v>
+        <v>0.0314465863284782</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02336639511485456</v>
+        <v>0.02570058355195252</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009415473404622685</v>
+        <v>0.009482871799499974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003655906944498944</v>
+        <v>0.003690581976220274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008532402409828346</v>
+        <v>0.008320026918857056</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03416011649819905</v>
+        <v>0.03537268015636347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01673786494245316</v>
+        <v>0.01710145537337129</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02200912700287622</v>
+        <v>0.02234283076491847</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.005019251816990962</v>
+        <v>0.005019251816990963</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.009010383002143466</v>
+        <v>0.009010383002143468</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.007071340231384835</v>
+        <v>0.007071340231384836</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001644315436523601</v>
+        <v>0.001642494253816913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004572635790372502</v>
+        <v>0.004470709850313131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003814720803989096</v>
+        <v>0.00402133434790408</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01342197846809226</v>
+        <v>0.01342794799951599</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01625556592279192</v>
+        <v>0.01517091659276174</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01217444323978863</v>
+        <v>0.01239401188780906</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01120573280797564</v>
+        <v>0.01120573280797563</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.002909778548786903</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004733053293107007</v>
+        <v>0.004861317486486941</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0007824151274927893</v>
+        <v>0.0007823335780375655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003571929319288077</v>
+        <v>0.003601240764068557</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02408811474025476</v>
+        <v>0.02234927777009029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008200941856110559</v>
+        <v>0.008853534364317286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0134918776060175</v>
+        <v>0.01281037555383492</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.000725360641455649</v>
+        <v>0.0007279293289858087</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01290404309210635</v>
+        <v>0.01601549580632371</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01141030131153766</v>
+        <v>0.008967435573467214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.007538749020124036</v>
+        <v>0.007754038025385114</v>
       </c>
     </row>
     <row r="22">
@@ -927,10 +927,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.005455514868912107</v>
+        <v>0.005045965471033013</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.002050875884604677</v>
+        <v>0.002539972720634935</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>0.01209726462553055</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4680</v>
+        <v>5100</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7366</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28073</v>
+        <v>32028</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15520</v>
+        <v>15208</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33679</v>
+        <v>33672</v>
       </c>
     </row>
     <row r="8">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1576</v>
+        <v>1276</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2187</v>
+        <v>2352</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6168</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="11">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14422</v>
+        <v>13961</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14120</v>
+        <v>15757</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22822</v>
+        <v>25102</v>
       </c>
     </row>
     <row r="12">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5834</v>
+        <v>5876</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2266</v>
+        <v>2287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10575</v>
+        <v>10312</v>
       </c>
     </row>
     <row r="15">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21168</v>
+        <v>21919</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10374</v>
+        <v>10599</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27279</v>
+        <v>27693</v>
       </c>
     </row>
     <row r="16">
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3363</v>
+        <v>3288</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5457</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9328</v>
+        <v>9332</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11956</v>
+        <v>11158</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17415</v>
+        <v>17729</v>
       </c>
     </row>
     <row r="20">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2875</v>
+        <v>2952</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>475</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4337</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="23">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14629</v>
+        <v>13573</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4976</v>
+        <v>5372</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16381</v>
+        <v>15553</v>
       </c>
     </row>
     <row r="24">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5244</v>
+        <v>6509</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5003</v>
+        <v>3932</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6369</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="28">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>2531</v>
+        <v>2341</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1588</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
     </row>
     <row r="36">
